--- a/result/processed_classfication_classifiers_result.xlsx
+++ b/result/processed_classfication_classifiers_result.xlsx
@@ -670,88 +670,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6183185413423943</v>
+        <v>0.5867794862083637</v>
       </c>
       <c r="C4" t="n">
-        <v>0.635</v>
+        <v>0.588</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6127120019552572</v>
+        <v>0.5911496908674081</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6095</v>
+        <v>0.59</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6326114991856382</v>
+        <v>0.6755282899659024</v>
       </c>
       <c r="G4" t="n">
+        <v>0.6990000000000001</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.6588925889241295</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4888536848760653</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.4853343332709336</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.6580453174800088</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.6859999999999999</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.6385261638611831</v>
+      </c>
+      <c r="Q4" t="n">
         <v>0.647</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.6250072170004999</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.6245000000000001</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5048350243657124</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.4980000000000001</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.5172935460703159</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.5149999999999999</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.6746323665083409</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.7030000000000001</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.6550855722896012</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.6655</v>
-      </c>
       <c r="R4" t="n">
-        <v>0.6344308316307063</v>
+        <v>0.5910910638846751</v>
       </c>
       <c r="S4" t="n">
-        <v>0.653</v>
+        <v>0.5940000000000001</v>
       </c>
       <c r="T4" t="n">
-        <v>0.6294883874516711</v>
+        <v>0.5930100494528215</v>
       </c>
       <c r="U4" t="n">
-        <v>0.629</v>
+        <v>0.5924999999999999</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6222683119481426</v>
+        <v>0.6714857468567652</v>
       </c>
       <c r="W4" t="n">
-        <v>0.6330000000000001</v>
+        <v>0.696</v>
       </c>
       <c r="X4" t="n">
-        <v>0.61863836371847</v>
+        <v>0.654044396947697</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.6184999999999998</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.6762850215499123</v>
+        <v>0.6623944431189186</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.7040000000000001</v>
+        <v>0.6910000000000001</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.6573403141125403</v>
+        <v>0.6416551457567504</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.6675</v>
+        <v>0.6505</v>
       </c>
     </row>
     <row r="5">
@@ -761,88 +761,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6055469012720833</v>
+        <v>0.6524668262824616</v>
       </c>
       <c r="C5" t="n">
-        <v>0.625</v>
+        <v>0.8470000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5970659974269046</v>
+        <v>0.5342609065801748</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6050000000000001</v>
+        <v>0.5525</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6563980073128443</v>
+        <v>0.6623177022921712</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8310000000000001</v>
+        <v>0.849</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5511610365652994</v>
+        <v>0.5511598390280821</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.5740000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6710048353787262</v>
+        <v>0.6687938021972293</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9240000000000002</v>
+        <v>0.946</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5292454441750143</v>
+        <v>0.5182224495543275</v>
       </c>
       <c r="M5" t="n">
-        <v>0.548</v>
+        <v>0.532</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6538675346491034</v>
+        <v>0.6540053142392115</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7849999999999999</v>
+        <v>0.852</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5698545281243834</v>
+        <v>0.5355237034507258</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.5935</v>
+        <v>0.5534999999999999</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6659563601952596</v>
+        <v>0.6561070483877145</v>
       </c>
       <c r="S5" t="n">
-        <v>0.792</v>
+        <v>0.86</v>
       </c>
       <c r="T5" t="n">
-        <v>0.5781604159630398</v>
+        <v>0.5339164801115952</v>
       </c>
       <c r="U5" t="n">
-        <v>0.6065</v>
+        <v>0.553</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6677300624916758</v>
+        <v>0.6702176239762629</v>
       </c>
       <c r="W5" t="n">
-        <v>0.875</v>
+        <v>0.885</v>
       </c>
       <c r="X5" t="n">
-        <v>0.5461891628662311</v>
+        <v>0.5450095930567206</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.5694999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.6679488240921547</v>
+        <v>0.6553253939830184</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.8459999999999999</v>
+        <v>0.861</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.557070714331816</v>
+        <v>0.5334430843523295</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.5840000000000001</v>
+        <v>0.5515000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -852,88 +852,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6185203383211608</v>
+        <v>0.5743952573160535</v>
       </c>
       <c r="C6" t="n">
-        <v>0.624</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.630674994742024</v>
+        <v>0.5997305832069287</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6214999999999999</v>
+        <v>0.6010000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6730605571079842</v>
+        <v>0.6935710155645171</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.6960000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6748580633702846</v>
+        <v>0.7070314191332031</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6719999999999999</v>
+        <v>0.6945</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5036409137131177</v>
+        <v>0.5193020752264974</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4920000000000001</v>
+        <v>0.5240000000000001</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5270332770856687</v>
+        <v>0.5244858522170122</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5230000000000001</v>
+        <v>0.5225000000000001</v>
       </c>
       <c r="N6" t="n">
-        <v>0.7008352434885772</v>
+        <v>0.6676778392119738</v>
       </c>
       <c r="O6" t="n">
-        <v>0.695</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="P6" t="n">
-        <v>0.7296030751182581</v>
+        <v>0.710395504594944</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.718</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R6" t="n">
-        <v>0.6514783878805657</v>
+        <v>0.5829022968259514</v>
       </c>
       <c r="S6" t="n">
-        <v>0.646</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="T6" t="n">
-        <v>0.6774809403763846</v>
+        <v>0.6113618683618081</v>
       </c>
       <c r="U6" t="n">
-        <v>0.6605</v>
+        <v>0.6105</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6720056834107123</v>
+        <v>0.6853297188491376</v>
       </c>
       <c r="W6" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6969999999999998</v>
       </c>
       <c r="X6" t="n">
-        <v>0.6716927365048093</v>
+        <v>0.6863753167185024</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.67</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.6997045432159904</v>
+        <v>0.6795534778210511</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.6950000000000001</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.7239202506726383</v>
+        <v>0.7226943761333404</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.713</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>

--- a/result/processed_classfication_classifiers_result.xlsx
+++ b/result/processed_classfication_classifiers_result.xlsx
@@ -670,88 +670,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5867794862083637</v>
+        <v>0.6189607300944256</v>
       </c>
       <c r="C4" t="n">
-        <v>0.588</v>
+        <v>0.63</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5911496908674081</v>
+        <v>0.6161130996815171</v>
       </c>
       <c r="E4" t="n">
-        <v>0.59</v>
+        <v>0.6164999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6755282899659024</v>
+        <v>0.6013256889962927</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6990000000000001</v>
+        <v>0.619</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6588925889241295</v>
+        <v>0.595721735522868</v>
       </c>
       <c r="I4" t="n">
-        <v>0.664</v>
+        <v>0.5925</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4888536848760653</v>
+        <v>0.5048350243657124</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4970000000000001</v>
+        <v>0.4980000000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4853343332709336</v>
+        <v>0.5172935460703159</v>
       </c>
       <c r="M4" t="n">
-        <v>0.483</v>
+        <v>0.5149999999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6580453174800088</v>
+        <v>0.6426097101964803</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6859999999999999</v>
+        <v>0.6709999999999999</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6385261638611831</v>
+        <v>0.6231257749317758</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.647</v>
+        <v>0.632</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5910910638846751</v>
+        <v>0.623661845275809</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5940000000000001</v>
+        <v>0.625</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5930100494528215</v>
+        <v>0.631191903743993</v>
       </c>
       <c r="U4" t="n">
-        <v>0.5924999999999999</v>
+        <v>0.626</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6714857468567652</v>
+        <v>0.6019655784651958</v>
       </c>
       <c r="W4" t="n">
-        <v>0.696</v>
+        <v>0.621</v>
       </c>
       <c r="X4" t="n">
-        <v>0.654044396947697</v>
+        <v>0.5943432857260397</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.592</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.6623944431189186</v>
+        <v>0.6419193021651175</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.6910000000000001</v>
+        <v>0.6689999999999999</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.6416551457567504</v>
+        <v>0.6238375418450141</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.6505</v>
+        <v>0.6319999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -761,88 +761,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6524668262824616</v>
+        <v>0.6543492593164338</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8470000000000001</v>
+        <v>0.826</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5342609065801748</v>
+        <v>0.5438920968120968</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5525</v>
+        <v>0.5675000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6623177022921712</v>
+        <v>0.236562059063871</v>
       </c>
       <c r="G5" t="n">
-        <v>0.849</v>
+        <v>0.177</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5511598390280821</v>
+        <v>0.5437218406593407</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5740000000000001</v>
+        <v>0.521</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6687938021972293</v>
+        <v>0.6710048353787262</v>
       </c>
       <c r="K5" t="n">
-        <v>0.946</v>
+        <v>0.9240000000000002</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5182224495543275</v>
+        <v>0.5292454441750143</v>
       </c>
       <c r="M5" t="n">
-        <v>0.532</v>
+        <v>0.548</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6540053142392115</v>
+        <v>0.2804802005151907</v>
       </c>
       <c r="O5" t="n">
-        <v>0.852</v>
+        <v>0.219</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5355237034507258</v>
+        <v>0.5520071571248042</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.5534999999999999</v>
+        <v>0.5355</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6561070483877145</v>
+        <v>0.6550623607403533</v>
       </c>
       <c r="S5" t="n">
-        <v>0.86</v>
+        <v>0.845</v>
       </c>
       <c r="T5" t="n">
-        <v>0.5339164801115952</v>
+        <v>0.5370930571893868</v>
       </c>
       <c r="U5" t="n">
-        <v>0.553</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6702176239762629</v>
+        <v>0.2518515978656548</v>
       </c>
       <c r="W5" t="n">
-        <v>0.885</v>
+        <v>0.19</v>
       </c>
       <c r="X5" t="n">
-        <v>0.5450095930567206</v>
+        <v>0.545344344937166</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.57</v>
+        <v>0.5255</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.6553253939830184</v>
+        <v>0.2822188676716513</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.861</v>
+        <v>0.222</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.5334430843523295</v>
+        <v>0.5511832757406527</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.5515000000000001</v>
+        <v>0.5349999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -852,88 +852,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5743952573160535</v>
+        <v>0.6324155858997562</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.6060000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5997305832069287</v>
+        <v>0.6728368859275959</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6010000000000001</v>
+        <v>0.6529999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6935710155645171</v>
+        <v>0.6912000924665993</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6960000000000001</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7070314191332031</v>
+        <v>0.7190885525075216</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6945</v>
+        <v>0.701</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5193020752264974</v>
+        <v>0.5035539918153584</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5240000000000001</v>
+        <v>0.502</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5244858522170122</v>
+        <v>0.5142681497684091</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5225000000000001</v>
+        <v>0.513</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6676778392119738</v>
+        <v>0.7002753360393046</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.6860000000000002</v>
       </c>
       <c r="P6" t="n">
-        <v>0.710395504594944</v>
+        <v>0.7449875039821274</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7190000000000001</v>
       </c>
       <c r="R6" t="n">
-        <v>0.5829022968259514</v>
+        <v>0.6454031032363178</v>
       </c>
       <c r="S6" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.6289999999999999</v>
       </c>
       <c r="T6" t="n">
-        <v>0.6113618683618081</v>
+        <v>0.6757038601739064</v>
       </c>
       <c r="U6" t="n">
-        <v>0.6105</v>
+        <v>0.6609999999999999</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6853297188491376</v>
+        <v>0.6889474327614385</v>
       </c>
       <c r="W6" t="n">
-        <v>0.6969999999999998</v>
+        <v>0.6849999999999999</v>
       </c>
       <c r="X6" t="n">
-        <v>0.6863753167185024</v>
+        <v>0.7126369760128052</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.6984999999999999</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.6795534778210511</v>
+        <v>0.7035751480782269</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.6940000000000001</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.7226943761333404</v>
+        <v>0.7430336976205992</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
     </row>
   </sheetData>

--- a/result/processed_classfication_classifiers_result.xlsx
+++ b/result/processed_classfication_classifiers_result.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,60 +465,12 @@
       <c r="A1" s="1" t="inlineStr"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>texture</t>
+          <t>resnet</t>
         </is>
       </c>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
       <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>color</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="n"/>
-      <c r="I1" s="1" t="n"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>shape</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="n"/>
-      <c r="L1" s="1" t="n"/>
-      <c r="M1" s="1" t="n"/>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>texture-color</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="n"/>
-      <c r="P1" s="1" t="n"/>
-      <c r="Q1" s="1" t="n"/>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>texture-shape</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="n"/>
-      <c r="T1" s="1" t="n"/>
-      <c r="U1" s="1" t="n"/>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>color-shape</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="n"/>
-      <c r="X1" s="1" t="n"/>
-      <c r="Y1" s="1" t="n"/>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>texture-color-shape</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="n"/>
-      <c r="AB1" s="1" t="n"/>
-      <c r="AC1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr"/>
@@ -542,126 +494,6 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>f1</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>recall</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>precision</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>f1</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>recall</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>precision</t>
-        </is>
-      </c>
-      <c r="M2" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="N2" s="1" t="inlineStr">
-        <is>
-          <t>f1</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>recall</t>
-        </is>
-      </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>precision</t>
-        </is>
-      </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="R2" s="1" t="inlineStr">
-        <is>
-          <t>f1</t>
-        </is>
-      </c>
-      <c r="S2" s="1" t="inlineStr">
-        <is>
-          <t>recall</t>
-        </is>
-      </c>
-      <c r="T2" s="1" t="inlineStr">
-        <is>
-          <t>precision</t>
-        </is>
-      </c>
-      <c r="U2" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="V2" s="1" t="inlineStr">
-        <is>
-          <t>f1</t>
-        </is>
-      </c>
-      <c r="W2" s="1" t="inlineStr">
-        <is>
-          <t>recall</t>
-        </is>
-      </c>
-      <c r="X2" s="1" t="inlineStr">
-        <is>
-          <t>precision</t>
-        </is>
-      </c>
-      <c r="Y2" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="Z2" s="1" t="inlineStr">
-        <is>
-          <t>f1</t>
-        </is>
-      </c>
-      <c r="AA2" s="1" t="inlineStr">
-        <is>
-          <t>recall</t>
-        </is>
-      </c>
-      <c r="AB2" s="1" t="inlineStr">
-        <is>
-          <t>precision</t>
-        </is>
-      </c>
-      <c r="AC2" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -670,88 +502,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6189607300944256</v>
+        <v>0.7124365753250727</v>
       </c>
       <c r="C4" t="n">
-        <v>0.63</v>
+        <v>0.8370000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6161130996815171</v>
+        <v>0.6277856651116206</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6164999999999999</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.6013256889962927</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.619</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.595721735522868</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.5925</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5048350243657124</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.4980000000000001</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.5172935460703159</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.5149999999999999</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.6426097101964803</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.6709999999999999</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.6231257749317758</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.632</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.623661845275809</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.631191903743993</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.626</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.6019655784651958</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.621</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.5943432857260397</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.592</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.6419193021651175</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.6689999999999999</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.6238375418450141</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.6319999999999999</v>
+        <v>0.6595</v>
       </c>
     </row>
     <row r="5">
@@ -761,88 +521,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6543492593164338</v>
+        <v>0.5471050552161657</v>
       </c>
       <c r="C5" t="n">
-        <v>0.826</v>
+        <v>0.516</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5438920968120968</v>
+        <v>0.5978005885818591</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5675000000000001</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.236562059063871</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.5437218406593407</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.521</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6710048353787262</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.9240000000000002</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.5292454441750143</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.548</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.2804802005151907</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.219</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.5520071571248042</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.5355</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.6550623607403533</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.845</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.5370930571893868</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.5580000000000001</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.2518515978656548</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.545344344937166</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0.5255</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.2822188676716513</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.222</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0.5511832757406527</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0.5349999999999999</v>
+        <v>0.5905</v>
       </c>
     </row>
     <row r="6">
@@ -852,99 +540,21 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6324155858997562</v>
+        <v>0.7117194907093406</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6060000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6728368859275959</v>
+        <v>0.7305956399799863</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6529999999999999</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.6912000924665993</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.6830000000000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.7190885525075216</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.701</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5035539918153584</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.502</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.5142681497684091</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.513</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.7002753360393046</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.6860000000000002</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.7449875039821274</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.7190000000000001</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.6454031032363178</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.6289999999999999</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.6757038601739064</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.6609999999999999</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.6889474327614385</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.6849999999999999</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.7126369760128052</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.6984999999999999</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.7035751480782269</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.6940000000000001</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0.7430336976205992</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0.72</v>
+        <v>0.7114999999999999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="J1:M1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
